--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -17,7 +17,7 @@
     <sheet name="使用文字" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$E$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -428,49 +428,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ほうき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>らっぱ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やたい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かかし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>かめら</t>
   </si>
   <si>
-    <t>たたみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぶらし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どかん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まくら</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>こっぷ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>るんば</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>らんす</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,47 +443,112 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とりい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほのお</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぽすと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だいや</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とけい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>つらら</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>せっき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ふとん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すぴあ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>くすり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あぶら</t>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コトバモデル名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージモデル名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁（大）</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁（小）</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歯車</t>
+    <rPh sb="0" eb="2">
+      <t>ハグルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルトコンベア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なまこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まいく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かるた</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -527,39 +556,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>がらす</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>らんぷ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まりも</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とうふ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だんご</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おはぎ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふきや</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆみや</t>
+    <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -645,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1080,13 +1081,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,15 +1177,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1201,12 +1204,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,12 +1211,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1252,17 +1243,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1301,26 +1328,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
@@ -1338,23 +1345,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1634,29 +1640,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
+    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="50"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="26" t="s">
+      <c r="J2" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1672,149 +1685,221 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="26" t="s">
+      <c r="J3" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="26" t="s">
+      <c r="J4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="26" t="s">
+      <c r="J5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="26" t="s">
+      <c r="J6" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="26" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="26" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="26" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="26" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="26" t="s">
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="26" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="26" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="26" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="26" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="26" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="26" t="s">
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+  <mergeCells count="34">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1827,6 +1912,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,793 +1925,854 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J50"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.8984375" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
-    <col min="9" max="9" width="18.8984375" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="10" max="10" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="I2" s="37" t="s">
+      <c r="G2" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="J2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="32" t="s">
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="19" t="s">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="H6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="55"/>
+    </row>
+    <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="48">
+        <f>COUNTIF(C:C,H3)</f>
+        <v>6</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="34" t="s">
+      <c r="K9" s="10">
+        <f>COUNTIF(E3:E32,J3)</f>
         <v>9</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="56">
-        <f>COUNTIF(C:C,G3)</f>
+    </row>
+    <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="39">
+        <f>COUNTIF(C:C,H4)</f>
         <v>10</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="10">
-        <f>COUNTIF(D3:D33,I3)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="46">
-        <f>COUNTIF(C:C,G4)</f>
-        <v>12</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="16">
-        <f>COUNTIF(D:D,I4)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="42" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="16">
+        <f>COUNTIF(E:E,J4)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="53" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="56">
-        <f>COUNTIF(C:C,G5)</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="48">
+        <f>COUNTIF(C:C,H5)</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="52">
-        <f>SUM(J9:J10)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="14" t="s">
+      <c r="K11" s="45">
+        <f>SUM(K9:K10)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="46">
-        <f>COUNTIF(C:C,G6)</f>
-        <v>11</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="39">
+        <f>COUNTIF(C:C,H6)</f>
+        <v>7</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="47">
-        <f>SUM(G9:G12)</f>
-        <v>43</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="40">
+        <f>SUM(H9:H12)</f>
+        <v>30</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="61"/>
+      <c r="C33" s="34"/>
+      <c r="E33" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="14"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="31"/>
-    </row>
-    <row r="47" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="14"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="31"/>
-    </row>
-    <row r="48" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="60"/>
+      <c r="C34" s="34"/>
+      <c r="E34" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="14"/>
+      <c r="C35" s="34"/>
+      <c r="E35" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="60"/>
+      <c r="C36" s="34"/>
+      <c r="E36" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="14"/>
+      <c r="C37" s="34"/>
+      <c r="E37" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="60"/>
+      <c r="C38" s="34"/>
+      <c r="E38" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="14"/>
+      <c r="C39" s="34"/>
+      <c r="E39" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="14"/>
+      <c r="C40" s="34"/>
+      <c r="E40" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="14"/>
+      <c r="C41" s="34"/>
+      <c r="E41" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="30"/>
+      <c r="C42" s="34"/>
+      <c r="E42" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="14"/>
+      <c r="C43" s="34"/>
+      <c r="E43" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="14"/>
+      <c r="C44" s="34"/>
+      <c r="E44" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="14"/>
+      <c r="C45" s="34"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="30"/>
+      <c r="C46" s="34"/>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="60"/>
+      <c r="C47" s="34"/>
+      <c r="E47" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="14"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="34"/>
+      <c r="E48" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="14"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C49" s="34"/>
+      <c r="E49" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="14"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="34"/>
+      <c r="E50" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="59"/>
+      <c r="C51" s="27"/>
+      <c r="E51" s="28" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:C33"/>
+  <autoFilter ref="B2:E44">
+    <sortState ref="B3:E44">
+      <sortCondition ref="C2:C44"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2639,11 +2790,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12 C3:C50">
-      <formula1>$G$3:$G$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 H19 C3:C51">
+      <formula1>$H$3:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D50">
-      <formula1>$I$3:$I$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
+      <formula1>$J$3:$J$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -560,7 +560,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1～5</t>
+    <t>各ポイント数</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5Pt</t>
+  </si>
+  <si>
+    <t>5Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1Pt</t>
+  </si>
+  <si>
+    <t>1Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Pt</t>
+  </si>
+  <si>
+    <t>2Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Pt</t>
+  </si>
+  <si>
+    <t>3Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4Pt</t>
+  </si>
+  <si>
+    <t>4Pt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1000,13 +1041,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,43 +1082,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1090,6 +1118,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1098,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,34 +1229,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -1237,46 +1271,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1284,6 +1297,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,26 +1720,26 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1685,221 +1755,209 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1912,11 +1970,23 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,7 +1998,7 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1944,19 +2014,19 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="56"/>
       <c r="J2" s="34" t="s">
         <v>73</v>
       </c>
@@ -1964,22 +2034,22 @@
     </row>
     <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="32" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>74</v>
+      <c r="D3" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="6"/>
@@ -1990,22 +2060,22 @@
     </row>
     <row r="4" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>74</v>
+      <c r="D4" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="6"/>
@@ -2016,22 +2086,22 @@
     </row>
     <row r="5" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="47" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>74</v>
+      <c r="D5" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="40" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="6"/>
@@ -2040,22 +2110,22 @@
     </row>
     <row r="6" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="6"/>
@@ -2064,16 +2134,16 @@
     </row>
     <row r="7" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="47" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>75</v>
+      <c r="D7" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="11"/>
@@ -2084,46 +2154,46 @@
     </row>
     <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="47" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>75</v>
+      <c r="D8" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="57"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="44">
         <f>COUNTIF(C:C,H3)</f>
         <v>6</v>
       </c>
@@ -2138,22 +2208,22 @@
     </row>
     <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="47" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>75</v>
+      <c r="D10" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="36">
         <f>COUNTIF(C:C,H4)</f>
         <v>10</v>
       </c>
@@ -2168,22 +2238,22 @@
     </row>
     <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="44">
         <f>COUNTIF(C:C,H5)</f>
         <v>7</v>
       </c>
@@ -2191,29 +2261,29 @@
       <c r="J11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="42">
         <f>SUM(K9:K10)</f>
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="36">
         <f>COUNTIF(C:C,H6)</f>
         <v>7</v>
       </c>
@@ -2223,22 +2293,22 @@
     </row>
     <row r="13" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>74</v>
+      <c r="D13" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="37">
         <f>SUM(H9:H12)</f>
         <v>30</v>
       </c>
@@ -2253,10 +2323,10 @@
       <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="6"/>
@@ -2268,40 +2338,44 @@
     </row>
     <row r="15" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="60"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>75</v>
+      <c r="D16" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="66"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2313,93 +2387,99 @@
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="62"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="14" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="G18" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="62"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="58" t="s">
-        <v>77</v>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="62"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>74</v>
+      <c r="D20" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="64"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="14" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>74</v>
+      <c r="D21" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2410,16 +2490,16 @@
     </row>
     <row r="22" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>75</v>
+      <c r="D22" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2429,17 +2509,17 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="14" t="s">
-        <v>101</v>
+      <c r="B23" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>75</v>
+      <c r="D23" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2450,15 +2530,15 @@
     </row>
     <row r="24" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="6"/>
@@ -2469,16 +2549,16 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="6"/>
@@ -2490,15 +2570,15 @@
     </row>
     <row r="26" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="68" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="6"/>
@@ -2510,16 +2590,16 @@
     </row>
     <row r="27" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>74</v>
+      <c r="D27" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2530,15 +2610,15 @@
     </row>
     <row r="28" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="28" t="s">
+      <c r="D28" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="6"/>
@@ -2550,15 +2630,15 @@
     </row>
     <row r="29" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="6"/>
@@ -2570,15 +2650,15 @@
     </row>
     <row r="30" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-      <c r="E30" s="28" t="s">
+      <c r="D30" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F30" s="6"/>
@@ -2590,16 +2670,16 @@
     </row>
     <row r="31" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>75</v>
+      <c r="D31" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>74</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2612,13 +2692,13 @@
       <c r="B32" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="28" t="s">
+      <c r="D32" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="6"/>
@@ -2629,9 +2709,10 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="61"/>
-      <c r="C33" s="34"/>
-      <c r="E33" s="28" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F33" s="6"/>
@@ -2642,124 +2723,142 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="60"/>
-      <c r="C34" s="34"/>
-      <c r="E34" s="28" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
-      <c r="E35" s="28" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="60"/>
-      <c r="C36" s="34"/>
-      <c r="E36" s="28" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
-      <c r="E37" s="28" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="60"/>
-      <c r="C38" s="34"/>
-      <c r="E38" s="28" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="14"/>
-      <c r="C39" s="34"/>
-      <c r="E39" s="28" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="14"/>
-      <c r="C40" s="34"/>
-      <c r="E40" s="28" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="14"/>
-      <c r="C41" s="34"/>
-      <c r="E41" s="28" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="30"/>
-      <c r="C42" s="34"/>
-      <c r="E42" s="28" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="14"/>
-      <c r="C43" s="34"/>
-      <c r="E43" s="28" t="s">
+      <c r="C43" s="45"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="14"/>
-      <c r="C44" s="34"/>
-      <c r="E44" s="28" t="s">
+      <c r="C44" s="45"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="14"/>
-      <c r="C45" s="34"/>
-      <c r="E45" s="28"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="30"/>
-      <c r="C46" s="34"/>
-      <c r="E46" s="28"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="68"/>
     </row>
     <row r="47" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="60"/>
-      <c r="C47" s="34"/>
-      <c r="E47" s="28" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="14"/>
-      <c r="C48" s="34"/>
-      <c r="E48" s="28" t="s">
+      <c r="C48" s="45"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="14"/>
-      <c r="C49" s="34"/>
-      <c r="E49" s="28" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="68" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="14"/>
-      <c r="C50" s="34"/>
-      <c r="E50" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="59"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="49"/>
       <c r="C51" s="27"/>
-      <c r="E51" s="28" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="68" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2769,32 +2868,41 @@
       <sortCondition ref="C2:C44"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="ノ">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="ノ">
       <formula>NOT(ISERROR(SEARCH("ノ",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="跳">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="跳">
       <formula>NOT(ISERROR(SEARCH("跳",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ス">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="ス">
       <formula>NOT(ISERROR(SEARCH("ス",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="貫">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="貫">
       <formula>NOT(ISERROR(SEARCH("貫",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 H19 C3:C51">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C51">
       <formula1>$H$3:$H$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
       <formula1>$J$3:$J$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"1Pt,2Pt,3Pt,4Pt,5Pt"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -1141,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,6 +1298,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,96 +1319,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1712,34 +1678,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1755,200 +1721,202 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="53"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="2">
+        <v>70</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="2">
+        <v>74</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="2"/>
     </row>
   </sheetData>
@@ -1997,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2014,7 +1982,7 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -2023,10 +1991,10 @@
       <c r="E2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="70"/>
       <c r="J2" s="34" t="s">
         <v>73</v>
       </c>
@@ -2039,10 +2007,10 @@
       <c r="C3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="6"/>
@@ -2065,10 +2033,10 @@
       <c r="C4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="6"/>
@@ -2091,10 +2059,10 @@
       <c r="C5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="6"/>
@@ -2115,10 +2083,10 @@
       <c r="C6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="6"/>
@@ -2139,10 +2107,10 @@
       <c r="C7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="6"/>
@@ -2159,22 +2127,22 @@
       <c r="C8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="47" t="s">
@@ -2183,10 +2151,10 @@
       <c r="C9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="6"/>
@@ -2213,10 +2181,10 @@
       <c r="C10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="6"/>
@@ -2233,7 +2201,7 @@
       </c>
       <c r="K10" s="16">
         <f>COUNTIF(E:E,J4)</f>
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2243,10 +2211,10 @@
       <c r="C11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6"/>
@@ -2263,7 +2231,7 @@
       </c>
       <c r="K11" s="42">
         <f>SUM(K9:K10)</f>
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2273,10 +2241,10 @@
       <c r="C12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="6"/>
@@ -2298,10 +2266,10 @@
       <c r="C13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="6"/>
@@ -2323,10 +2291,10 @@
       <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="6"/>
@@ -2343,17 +2311,17 @@
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2365,17 +2333,17 @@
       <c r="C16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2387,17 +2355,17 @@
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2409,17 +2377,17 @@
       <c r="C18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2431,17 +2399,17 @@
       <c r="C19" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="62"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2453,17 +2421,17 @@
       <c r="C20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="64"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2475,10 +2443,10 @@
       <c r="C21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="6"/>
@@ -2495,10 +2463,10 @@
       <c r="C22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6"/>
@@ -2515,10 +2483,10 @@
       <c r="C23" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="6"/>
@@ -2535,10 +2503,10 @@
       <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="6"/>
@@ -2555,10 +2523,10 @@
       <c r="C25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="6"/>
@@ -2575,10 +2543,10 @@
       <c r="C26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="6"/>
@@ -2595,10 +2563,10 @@
       <c r="C27" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F27" s="6"/>
@@ -2615,10 +2583,10 @@
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="6"/>
@@ -2635,10 +2603,10 @@
       <c r="C29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="6"/>
@@ -2655,10 +2623,10 @@
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F30" s="6"/>
@@ -2675,10 +2643,10 @@
       <c r="C31" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="53" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="6"/>
@@ -2695,10 +2663,10 @@
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="53" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="6"/>
@@ -2711,10 +2679,8 @@
     <row r="33" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="51"/>
       <c r="C33" s="45"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2725,142 +2691,110 @@
     <row r="34" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="50"/>
       <c r="C34" s="45"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="53"/>
     </row>
     <row r="35" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="14"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="50"/>
       <c r="C36" s="45"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="53"/>
     </row>
     <row r="38" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="50"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="53"/>
     </row>
     <row r="39" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="53"/>
     </row>
     <row r="40" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="53"/>
     </row>
     <row r="41" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="14"/>
       <c r="C41" s="45"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="53"/>
     </row>
     <row r="42" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="30"/>
       <c r="C42" s="45"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="14"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="53"/>
     </row>
     <row r="44" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="53"/>
     </row>
     <row r="45" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="14"/>
       <c r="C45" s="45"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="68"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="53"/>
     </row>
     <row r="46" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="30"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="68"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="53"/>
     </row>
     <row r="47" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="50"/>
       <c r="C47" s="45"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="53"/>
     </row>
     <row r="48" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="53"/>
     </row>
     <row r="49" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="53"/>
     </row>
     <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="49"/>
       <c r="C51" s="27"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="68" t="s">
-        <v>75</v>
-      </c>
+      <c r="D51" s="55"/>
+      <c r="E51" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E44">
@@ -2869,7 +2803,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -2878,23 +2811,24 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="ノ">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="ノ">
       <formula>NOT(ISERROR(SEARCH("ノ",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="跳">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="跳">
       <formula>NOT(ISERROR(SEARCH("跳",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="ス">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="ス">
       <formula>NOT(ISERROR(SEARCH("ス",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="貫">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="貫">
       <formula>NOT(ISERROR(SEARCH("貫",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C51">
       <formula1>$H$3:$H$6</formula1>
     </dataValidation>
@@ -2915,7 +2849,7 @@
   <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2944,10 +2878,10 @@
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -2965,7 +2899,7 @@
       <c r="I3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="71" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -3019,7 +2953,7 @@
       <c r="C5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="22" t="s">
@@ -3166,5 +3100,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -602,6 +602,42 @@
   </si>
   <si>
     <t>4Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふとん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かめら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こえだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まいく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1310,6 +1346,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,6 +1358,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,27 +1392,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,36 +1712,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L18"/>
+  <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1721,211 +1757,447 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="L7" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="2">
         <v>74</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="B14" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="B15" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="2">
+        <v>74</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="B16" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="2">
+        <v>77</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="B17" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="2">
+        <v>96</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="57"/>
+      <c r="B18" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="58"/>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="2"/>
     </row>
+    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+  <mergeCells count="56">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1938,23 +2210,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -1991,10 +2251,10 @@
       <c r="E2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="70"/>
+      <c r="H2" s="65"/>
       <c r="J2" s="34" t="s">
         <v>73</v>
       </c>
@@ -2134,15 +2394,15 @@
         <v>74</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="47" t="s">
@@ -2318,10 +2578,10 @@
         <v>75</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2340,10 +2600,10 @@
         <v>74</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="64"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2362,10 +2622,10 @@
         <v>75</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2384,10 +2644,10 @@
         <v>75</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="66"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2406,10 +2666,10 @@
         <v>74</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2428,10 +2688,10 @@
         <v>75</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2899,7 +3159,7 @@
       <c r="I3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="10" t="s">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -1177,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1331,23 +1331,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1714,34 +1723,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1757,447 +1766,413 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="58"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="2">
         <v>74</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="2">
         <v>74</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="2">
         <v>77</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2">
         <v>96</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="2">
+        <v>98</v>
+      </c>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
+      <c r="C19" s="61"/>
+      <c r="D19" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="58"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="58"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="58"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="58"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2210,11 +2185,45 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2225,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2242,7 +2251,7 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -2251,10 +2260,10 @@
       <c r="E2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="65"/>
+      <c r="H2" s="68"/>
       <c r="J2" s="34" t="s">
         <v>73</v>
       </c>
@@ -2267,10 +2276,10 @@
       <c r="C3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="6"/>
@@ -2293,10 +2302,10 @@
       <c r="C4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="6"/>
@@ -2319,10 +2328,10 @@
       <c r="C5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="6"/>
@@ -2343,10 +2352,10 @@
       <c r="C6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="6"/>
@@ -2367,10 +2376,10 @@
       <c r="C7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="6"/>
@@ -2387,22 +2396,22 @@
       <c r="C8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="67"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="47" t="s">
@@ -2411,10 +2420,10 @@
       <c r="C9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="6"/>
@@ -2431,7 +2440,7 @@
       </c>
       <c r="K9" s="10">
         <f>COUNTIF(E3:E32,J3)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2441,10 +2450,10 @@
       <c r="C10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="6"/>
@@ -2461,7 +2470,7 @@
       </c>
       <c r="K10" s="16">
         <f>COUNTIF(E:E,J4)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2471,10 +2480,10 @@
       <c r="C11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6"/>
@@ -2501,10 +2510,10 @@
       <c r="C12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="6"/>
@@ -2526,10 +2535,10 @@
       <c r="C13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="6"/>
@@ -2551,10 +2560,10 @@
       <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="6"/>
@@ -2571,17 +2580,17 @@
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2593,17 +2602,17 @@
       <c r="C16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="71"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2615,17 +2624,17 @@
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="61"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2637,17 +2646,17 @@
       <c r="C18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="61"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2659,17 +2668,17 @@
       <c r="C19" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="61"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2681,17 +2690,17 @@
       <c r="C20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>75</v>
+      <c r="E20" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="63"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2703,11 +2712,11 @@
       <c r="C21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>75</v>
+      <c r="E21" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2723,10 +2732,10 @@
       <c r="C22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6"/>
@@ -2743,10 +2752,10 @@
       <c r="C23" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="6"/>
@@ -2763,11 +2772,11 @@
       <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>75</v>
+      <c r="E24" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2783,11 +2792,11 @@
       <c r="C25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>75</v>
+      <c r="E25" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2803,10 +2812,10 @@
       <c r="C26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="6"/>
@@ -2817,17 +2826,17 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="43" t="s">
         <v>89</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>75</v>
+      <c r="E27" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2837,16 +2846,16 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="6"/>
@@ -2857,16 +2866,16 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="6"/>
@@ -2877,16 +2886,16 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="57" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F30" s="6"/>
@@ -2897,16 +2906,16 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="6"/>
@@ -2917,16 +2926,16 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="57" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="6"/>
@@ -2937,10 +2946,10 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="51"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="45"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2949,112 +2958,112 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="50"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="45"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="14"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="50"/>
       <c r="C36" s="45"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="14"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="50"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="14"/>
       <c r="C39" s="45"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="52"/>
     </row>
     <row r="40" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="14"/>
       <c r="C40" s="45"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="14"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="45"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="30"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="45"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="14"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="14"/>
       <c r="C44" s="45"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="14"/>
       <c r="C45" s="45"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="30"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="50"/>
       <c r="C47" s="45"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="14"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="14"/>
       <c r="C49" s="45"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="14"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="49"/>
       <c r="C51" s="27"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E44">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game105\Desktop\MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game105\Documents\GitHub\TEAM_B_OPEN\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1982,8 +1982,8 @@
         <v>109</v>
       </c>
       <c r="C20" s="61"/>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
+      <c r="D20" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1991,8 +1991,8 @@
         <v>128</v>
       </c>
       <c r="C21" s="61"/>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
+      <c r="D21" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2168,11 +2168,45 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2185,45 +2219,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2306,7 +2306,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="14" t="s">
@@ -2332,7 +2332,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="14" t="s">
@@ -2356,7 +2356,7 @@
         <v>119</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="19" t="s">
@@ -2424,7 +2424,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="33" t="s">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="K9" s="10">
         <f>COUNTIF(E3:E32,J3)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="K10" s="16">
         <f>COUNTIF(E:E,J4)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game105\Documents\GitHub\TEAM_B_OPEN\資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game105\Desktop\MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="174">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ふとん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,12 +636,184 @@
     <t>くない</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>かだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まるた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やぐら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なすか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かざん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さざえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らいす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まんが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りんぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がらす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ずがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふいご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かめん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くすり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めんこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いなり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がくふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷらぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いるい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くくい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ますく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めかぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +841,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1177,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1256,107 +1441,140 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,40 +1585,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1723,34 +1941,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="61"/>
+      <c r="B2" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="72"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="61"/>
+      <c r="J2" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="72"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1766,402 +1984,398 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="62"/>
+      <c r="J3" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="73"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="61"/>
+      <c r="J4" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="61"/>
+      <c r="J5" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="72"/>
       <c r="L5" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="61"/>
+      <c r="J6" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="61"/>
+      <c r="J7" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="72"/>
       <c r="L7" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="61"/>
+      <c r="B13" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="72"/>
       <c r="D13" s="2">
         <v>74</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="72"/>
       <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="61"/>
+      <c r="B15" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="72"/>
       <c r="D15" s="2">
         <v>74</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="61"/>
+      <c r="B16" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="72"/>
       <c r="D16" s="2">
         <v>77</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="61"/>
+      <c r="B17" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="72"/>
       <c r="D17" s="2">
         <v>96</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="61"/>
+      <c r="B18" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="72"/>
       <c r="D18" s="2">
         <v>98</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="61"/>
+      <c r="B19" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="72"/>
       <c r="D19" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="2">
-        <v>8</v>
+      <c r="B20" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="2">
-        <v>51</v>
+      <c r="B21" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="61"/>
+      <c r="B22" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="72"/>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="61"/>
+      <c r="B23" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="72"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="61"/>
+      <c r="B24" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="72"/>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
+      <c r="C26" s="72"/>
+      <c r="D26" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="2" t="s">
-        <v>1</v>
+      <c r="B28" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
+      <c r="B29" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="61"/>
+      <c r="B30" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="72"/>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
+      <c r="C31" s="72"/>
+      <c r="D31" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="2" t="s">
-        <v>1</v>
+      <c r="B33" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="2">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="61"/>
+      <c r="B34" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="72"/>
       <c r="D34" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2232,710 +2446,702 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.8984375" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="1"/>
-    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
     <col min="10" max="10" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="83"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="81"/>
+    </row>
+    <row r="9" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="56">
+        <f>COUNTIF(C:C,H3)</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="58">
+        <f>COUNTIF(E:E,J3)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="59">
+        <f>COUNTIF(C:C,H4)</f>
+        <v>34</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="60">
+        <f>COUNTIF(E:E,J4)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="56">
+        <f>COUNTIF(C:C,H5)</f>
+        <v>11</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="62">
+        <f>SUM(K9:K10)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="59">
+        <f>COUNTIF(C:C,H6)</f>
+        <v>22</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="63">
+        <f>SUM(H9:H12)</f>
+        <v>75</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="J2" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="32" t="s">
+      <c r="H15" s="83"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="85"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="75"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+    </row>
+    <row r="27" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+    </row>
+    <row r="28" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+    </row>
+    <row r="30" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+    </row>
+    <row r="32" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="70"/>
-    </row>
-    <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="44">
-        <f>COUNTIF(C:C,H3)</f>
-        <v>6</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="10">
-        <f>COUNTIF(E3:E32,J3)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="36">
-        <f>COUNTIF(C:C,H4)</f>
-        <v>10</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="16">
-        <f>COUNTIF(E:E,J4)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="44">
-        <f>COUNTIF(C:C,H5)</f>
-        <v>7</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="42">
-        <f>SUM(K9:K10)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="36">
-        <f>COUNTIF(C:C,H6)</f>
-        <v>7</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="37">
-        <f>SUM(H9:H12)</f>
-        <v>30</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="52" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="26" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="6"/>
@@ -2945,11 +3151,17 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="59"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="52"/>
+    <row r="33" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2957,118 +3169,548 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="58"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="52"/>
-    </row>
-    <row r="35" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="14"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="52"/>
-    </row>
-    <row r="36" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="50"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="52"/>
-    </row>
-    <row r="37" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="14"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="52"/>
-    </row>
-    <row r="38" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="50"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="52"/>
-    </row>
-    <row r="39" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="14"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="52"/>
-    </row>
-    <row r="40" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="14"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="52"/>
-    </row>
-    <row r="41" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="43"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="52"/>
-    </row>
-    <row r="42" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="34"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="52"/>
-    </row>
-    <row r="43" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="55"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="52"/>
-    </row>
-    <row r="44" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="14"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="52"/>
-    </row>
-    <row r="45" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="14"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="52"/>
-    </row>
-    <row r="46" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="30"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="52"/>
-    </row>
-    <row r="47" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="50"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="52"/>
-    </row>
-    <row r="48" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="14"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="52"/>
-    </row>
-    <row r="49" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="14"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="52"/>
-    </row>
-    <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="14"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="52"/>
-    </row>
-    <row r="51" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="49"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="52"/>
+    <row r="34" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B71" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B76" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="26" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:E44">
-    <sortState ref="B3:E44">
-      <sortCondition ref="C2:C44"/>
+    <sortState ref="B3:E77">
+      <sortCondition ref="E2:E44"/>
     </sortState>
   </autoFilter>
   <mergeCells count="9">
@@ -3098,10 +3740,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C77">
       <formula1>$H$3:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E77">
       <formula1>$J$3:$J$4</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
@@ -3118,7 +3760,7 @@
   <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3168,7 +3810,7 @@
       <c r="I3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="28" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -3293,7 +3935,7 @@
       <c r="D7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="23" t="s">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="モデル" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="使用文字" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$E$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -1362,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1941,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1949,26 +1952,26 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1984,398 +1987,398 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="73"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="2">
         <v>74</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="2">
         <v>74</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="2">
         <v>77</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="2">
         <v>96</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="2">
         <v>98</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2446,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K77"/>
+  <dimension ref="B1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2477,10 +2480,10 @@
         <v>70</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="79"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="36"/>
       <c r="J2" s="37" t="s">
         <v>73</v>
@@ -2621,15 +2624,15 @@
         <v>74</v>
       </c>
       <c r="F8" s="43"/>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="81"/>
+      <c r="K8" s="82"/>
     </row>
     <row r="9" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="55" t="s">
@@ -2658,7 +2661,7 @@
       </c>
       <c r="K9" s="58">
         <f>COUNTIF(E:E,J3)</f>
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2688,7 +2691,7 @@
       </c>
       <c r="K10" s="60">
         <f>COUNTIF(E:E,J4)</f>
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2710,7 +2713,7 @@
       </c>
       <c r="H11" s="56">
         <f>COUNTIF(C:C,H5)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="52" t="s">
@@ -2718,7 +2721,7 @@
       </c>
       <c r="K11" s="62">
         <f>SUM(K9:K10)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2765,7 +2768,7 @@
       </c>
       <c r="H13" s="63">
         <f>SUM(H9:H12)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -2805,10 +2808,10 @@
         <v>74</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -2827,10 +2830,10 @@
         <v>74</v>
       </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -2849,10 +2852,10 @@
         <v>74</v>
       </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="75"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -2871,10 +2874,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="75"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -2893,10 +2896,10 @@
         <v>74</v>
       </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
@@ -2915,10 +2918,10 @@
         <v>74</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
@@ -3060,17 +3063,15 @@
       <c r="K27" s="43"/>
     </row>
     <row r="28" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>75</v>
+      <c r="B28" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -3080,15 +3081,15 @@
       <c r="K28" s="43"/>
     </row>
     <row r="29" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="67" t="s">
-        <v>145</v>
+      <c r="B29" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
@@ -3098,15 +3099,15 @@
       <c r="K29" s="43"/>
     </row>
     <row r="30" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="37" t="s">
-        <v>146</v>
+      <c r="B30" s="67" t="s">
+        <v>148</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -3116,33 +3117,33 @@
       <c r="K30" s="43"/>
     </row>
     <row r="31" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="67" t="s">
-        <v>147</v>
+      <c r="B31" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
+        <v>74</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="30" t="s">
-        <v>148</v>
+      <c r="B32" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3151,298 +3152,296 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>98</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="31" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="31" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="31" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="31" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="31" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="31" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="31" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="31" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="31" t="s">
-        <v>161</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="32" t="s">
-        <v>162</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="68" t="s">
+        <v>142</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="68" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="68" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="68" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="26" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="26" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="68" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="68" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="68" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="26" t="s">
@@ -3451,58 +3450,58 @@
     </row>
     <row r="57" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="68" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="68" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="68" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="68" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="68" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="26" t="s">
@@ -3511,10 +3510,10 @@
     </row>
     <row r="62" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="68" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="26" t="s">
@@ -3523,10 +3522,10 @@
     </row>
     <row r="63" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="68" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="26" t="s">
@@ -3535,10 +3534,10 @@
     </row>
     <row r="64" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="68" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="26" t="s">
@@ -3547,10 +3546,10 @@
     </row>
     <row r="65" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="68" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="26" t="s">
@@ -3559,10 +3558,10 @@
     </row>
     <row r="66" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="68" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="26" t="s">
@@ -3571,10 +3570,10 @@
     </row>
     <row r="67" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="68" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="26" t="s">
@@ -3583,10 +3582,10 @@
     </row>
     <row r="68" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="68" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="26" t="s">
@@ -3595,10 +3594,10 @@
     </row>
     <row r="69" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="68" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="26" t="s">
@@ -3606,53 +3605,47 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="42" t="s">
+      <c r="B70" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>74</v>
+      <c r="B71" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>74</v>
+      <c r="B72" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="69" t="s">
-        <v>131</v>
+      <c r="B73" s="68" t="s">
+        <v>169</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="26" t="s">
@@ -3661,10 +3654,10 @@
     </row>
     <row r="74" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="68" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="26" t="s">
@@ -3673,19 +3666,21 @@
     </row>
     <row r="75" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="26" t="s">
+      <c r="D75" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>17</v>
@@ -3695,22 +3690,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:E44">
-    <sortState ref="B3:E77">
-      <sortCondition ref="E2:E44"/>
+  <autoFilter ref="B2:E43">
+    <sortState ref="B3:E76">
+      <sortCondition ref="E2:E43"/>
     </sortState>
   </autoFilter>
   <mergeCells count="9">
@@ -3740,10 +3723,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C76">
       <formula1>$H$3:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E76">
       <formula1>$J$3:$J$4</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -17,7 +17,7 @@
     <sheet name="使用文字" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">モデルタイプ!$B$2:$E$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="175">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -806,6 +806,10 @@
   </si>
   <si>
     <t>いくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -908,7 +912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1356,13 +1360,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1577,6 +1590,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1952,26 +1968,26 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -1987,398 +2003,398 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="75"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="73"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="73"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="2">
         <v>74</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2">
         <v>74</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2">
         <v>77</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="2">
         <v>96</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2">
         <v>98</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="73"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="73"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="73"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="73"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2449,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K76"/>
+  <dimension ref="B1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2480,10 +2496,10 @@
         <v>70</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="36"/>
       <c r="J2" s="37" t="s">
         <v>73</v>
@@ -2624,15 +2640,15 @@
         <v>74</v>
       </c>
       <c r="F8" s="43"/>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="55" t="s">
@@ -2661,7 +2677,7 @@
       </c>
       <c r="K9" s="58">
         <f>COUNTIF(E:E,J3)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2691,7 +2707,7 @@
       </c>
       <c r="K10" s="60">
         <f>COUNTIF(E:E,J4)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2721,7 +2737,7 @@
       </c>
       <c r="K11" s="62">
         <f>SUM(K9:K10)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2743,7 +2759,7 @@
       </c>
       <c r="H12" s="59">
         <f>COUNTIF(C:C,H6)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
@@ -2768,7 +2784,7 @@
       </c>
       <c r="H13" s="63">
         <f>SUM(H9:H12)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -2808,10 +2824,10 @@
         <v>74</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -2830,10 +2846,10 @@
         <v>74</v>
       </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -2852,10 +2868,10 @@
         <v>74</v>
       </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="76"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -2874,10 +2890,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="76"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -2896,10 +2912,10 @@
         <v>74</v>
       </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="76"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
@@ -2918,10 +2934,10 @@
         <v>74</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="78"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
@@ -3005,14 +3021,14 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="26" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="42" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="43"/>
@@ -3024,15 +3040,13 @@
     </row>
     <row r="26" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="43"/>
@@ -3043,14 +3057,14 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="37" t="s">
-        <v>85</v>
+      <c r="B27" s="65" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E27" s="42" t="s">
         <v>74</v>
@@ -3063,14 +3077,16 @@
       <c r="K27" s="43"/>
     </row>
     <row r="28" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26" t="s">
+      <c r="B28" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="43"/>
@@ -3081,8 +3097,8 @@
       <c r="K28" s="43"/>
     </row>
     <row r="29" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="37" t="s">
-        <v>146</v>
+      <c r="B29" s="67" t="s">
+        <v>145</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>71</v>
@@ -3099,8 +3115,8 @@
       <c r="K29" s="43"/>
     </row>
     <row r="30" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="67" t="s">
-        <v>148</v>
+      <c r="B30" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>71</v>
@@ -3117,8 +3133,8 @@
       <c r="K30" s="43"/>
     </row>
     <row r="31" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="30" t="s">
-        <v>149</v>
+      <c r="B31" s="67" t="s">
+        <v>148</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>71</v>
@@ -3127,16 +3143,16 @@
       <c r="E31" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
     </row>
     <row r="32" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="31" t="s">
-        <v>150</v>
+      <c r="B32" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>71</v>
@@ -3152,9 +3168,9 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>71</v>
@@ -3163,10 +3179,16 @@
       <c r="E33" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>71</v>
@@ -3176,49 +3198,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="31" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="71" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="31" t="s">
+      <c r="E37" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>72</v>
@@ -3228,9 +3250,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>72</v>
@@ -3240,9 +3262,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>72</v>
@@ -3252,9 +3274,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>72</v>
@@ -3264,9 +3286,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>72</v>
@@ -3276,9 +3298,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>72</v>
@@ -3288,9 +3310,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>72</v>
@@ -3300,9 +3322,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="32" t="s">
-        <v>141</v>
+    <row r="45" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>72</v>
@@ -3312,9 +3334,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="68" t="s">
-        <v>142</v>
+    <row r="46" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>72</v>
@@ -3324,9 +3346,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="68" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>72</v>
@@ -3336,9 +3358,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="68" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>72</v>
@@ -3350,7 +3372,7 @@
     </row>
     <row r="49" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>72</v>
@@ -3362,21 +3384,19 @@
     </row>
     <row r="50" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="68" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C51" s="71" t="s">
         <v>17</v>
@@ -3390,19 +3410,21 @@
     </row>
     <row r="52" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="26" t="s">
+      <c r="D52" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="42" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="68" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>17</v>
@@ -3414,7 +3436,7 @@
     </row>
     <row r="54" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="68" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>17</v>
@@ -3426,7 +3448,7 @@
     </row>
     <row r="55" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>17</v>
@@ -3438,43 +3460,43 @@
     </row>
     <row r="56" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="68" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="68" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>71</v>
@@ -3486,7 +3508,7 @@
     </row>
     <row r="60" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>71</v>
@@ -3498,7 +3520,7 @@
     </row>
     <row r="61" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>71</v>
@@ -3510,7 +3532,7 @@
     </row>
     <row r="62" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>71</v>
@@ -3522,7 +3544,7 @@
     </row>
     <row r="63" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>71</v>
@@ -3534,7 +3556,7 @@
     </row>
     <row r="64" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>71</v>
@@ -3546,7 +3568,7 @@
     </row>
     <row r="65" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>71</v>
@@ -3558,7 +3580,7 @@
     </row>
     <row r="66" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>71</v>
@@ -3570,7 +3592,7 @@
     </row>
     <row r="67" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>71</v>
@@ -3582,7 +3604,7 @@
     </row>
     <row r="68" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>71</v>
@@ -3594,7 +3616,7 @@
     </row>
     <row r="69" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>71</v>
@@ -3605,8 +3627,8 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="69" t="s">
-        <v>166</v>
+      <c r="B70" s="68" t="s">
+        <v>165</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>71</v>
@@ -3617,8 +3639,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="68" t="s">
-        <v>167</v>
+      <c r="B71" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>71</v>
@@ -3629,8 +3651,8 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="69" t="s">
-        <v>168</v>
+      <c r="B72" s="68" t="s">
+        <v>167</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>71</v>
@@ -3641,11 +3663,11 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="68" t="s">
-        <v>169</v>
+      <c r="B73" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="26" t="s">
@@ -3654,7 +3676,7 @@
     </row>
     <row r="74" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>15</v>
@@ -3666,34 +3688,46 @@
     </row>
     <row r="75" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C77" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="26" t="s">
+      <c r="D77" s="27"/>
+      <c r="E77" s="26" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E43">
-    <sortState ref="B3:E76">
-      <sortCondition ref="E2:E43"/>
+  <autoFilter ref="B2:E44">
+    <sortState ref="B3:E77">
+      <sortCondition ref="E2:E44"/>
     </sortState>
   </autoFilter>
   <mergeCells count="9">
@@ -3723,10 +3757,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 C3:C77">
       <formula1>$H$3:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E77">
       <formula1>$J$3:$J$4</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="175">
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
@@ -1375,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,6 +1593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1958,36 +1961,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="74"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="2">
         <v>138</v>
       </c>
@@ -2003,416 +2006,410 @@
       <c r="H3" s="3">
         <v>68</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="75"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="74"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2">
         <v>28</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="74"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="2">
         <v>56</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="74"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="74"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="2">
         <v>40</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="2">
         <v>70</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="2">
         <v>74</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="2">
         <v>74</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="2">
         <v>77</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="2">
         <v>96</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="2">
         <v>98</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
+      <c r="C21" s="75"/>
+      <c r="D21" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="33" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="2">
-        <v>97</v>
+      <c r="B33" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="2" t="s">
-        <v>1</v>
+      <c r="B34" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="2">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="74"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="55">
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -2467,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2496,10 +2493,10 @@
         <v>70</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="36"/>
       <c r="J2" s="37" t="s">
         <v>73</v>
@@ -2640,15 +2637,15 @@
         <v>74</v>
       </c>
       <c r="F8" s="43"/>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="83"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="55" t="s">
@@ -2677,7 +2674,7 @@
       </c>
       <c r="K9" s="58">
         <f>COUNTIF(E:E,J3)</f>
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2707,7 +2704,7 @@
       </c>
       <c r="K10" s="60">
         <f>COUNTIF(E:E,J4)</f>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2824,10 +2821,10 @@
         <v>74</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -2846,10 +2843,10 @@
         <v>74</v>
       </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -2868,10 +2865,10 @@
         <v>74</v>
       </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -2890,10 +2887,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="77"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -2912,10 +2909,10 @@
         <v>74</v>
       </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="77"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
@@ -2934,10 +2931,10 @@
         <v>74</v>
       </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="79"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
@@ -3503,195 +3500,197 @@
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="68" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="68" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="68" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="68" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="26" t="s">
-        <v>75</v>
+        <v>107</v>
+      </c>
+      <c r="C72" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="69" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="68" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="68" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="26" t="s">
@@ -3700,24 +3699,22 @@
     </row>
     <row r="76" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="68" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="26" t="s">

--- a/資料/モデル関連資料.xlsx
+++ b/資料/モデル関連資料.xlsx
@@ -2399,44 +2399,11 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2449,11 +2416,44 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="K9" s="58">
         <f>COUNTIF(E:E,J3)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="K10" s="60">
         <f>COUNTIF(E:E,J4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
